--- a/描述符.xlsx
+++ b/描述符.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>段界限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>段选择子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reserve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,22 @@
   </si>
   <si>
     <t>B/D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段选择子(index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断描述符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,10 +284,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN34"/>
+  <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="S8" sqref="R8:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,7 +586,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1">
@@ -768,22 +783,22 @@
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -791,54 +806,54 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="6"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="7"/>
       <c r="AX2" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,75 +875,75 @@
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -1125,106 +1140,106 @@
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="5">
+        <v>9</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="4">
-        <v>9</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="7"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
@@ -1421,105 +1436,106 @@
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="4">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="5">
         <v>9</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="4">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="5">
         <v>2</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="7"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
@@ -1716,105 +1732,106 @@
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5">
         <v>4</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="4" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="5">
+        <v>7</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="4">
-        <v>7</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="7"/>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -2011,105 +2028,106 @@
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5">
         <v>4</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="4">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="5">
         <v>7</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="4">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="5">
         <v>2</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="7"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
@@ -2306,795 +2324,727 @@
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5">
         <v>4</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="4">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="5">
         <v>9</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="4">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="5">
         <v>2</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="7"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10</v>
-      </c>
-      <c r="M14" s="1">
-        <v>11</v>
-      </c>
-      <c r="N14" s="1">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <v>13</v>
-      </c>
-      <c r="P14" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>15</v>
-      </c>
-      <c r="R14" s="1">
-        <v>16</v>
-      </c>
-      <c r="S14" s="1">
-        <v>17</v>
-      </c>
-      <c r="T14" s="1">
-        <v>18</v>
-      </c>
-      <c r="U14" s="1">
-        <v>19</v>
-      </c>
-      <c r="V14" s="1">
-        <v>20</v>
-      </c>
-      <c r="W14" s="1">
-        <v>21</v>
-      </c>
-      <c r="X14" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF14" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG14" s="1">
-        <v>57</v>
-      </c>
-      <c r="BH14" s="1">
-        <v>58</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>59</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>60</v>
-      </c>
-      <c r="BK14" s="1">
-        <v>61</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>62</v>
-      </c>
-      <c r="BM14" s="1">
-        <v>63</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59</v>
+      </c>
+      <c r="G19" s="1">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1">
+        <v>56</v>
+      </c>
+      <c r="J19" s="1">
+        <v>55</v>
+      </c>
+      <c r="K19" s="1">
+        <v>54</v>
+      </c>
+      <c r="L19" s="1">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1">
+        <v>52</v>
+      </c>
+      <c r="N19" s="1">
+        <v>51</v>
+      </c>
+      <c r="O19" s="1">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>48</v>
+      </c>
+      <c r="R19" s="1">
+        <v>47</v>
+      </c>
+      <c r="S19" s="1">
+        <v>46</v>
+      </c>
+      <c r="T19" s="1">
+        <v>45</v>
+      </c>
+      <c r="U19" s="1">
+        <v>44</v>
+      </c>
+      <c r="V19" s="1">
+        <v>43</v>
+      </c>
+      <c r="W19" s="1">
+        <v>42</v>
+      </c>
+      <c r="X19" s="1">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>33</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>29</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>26</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO19" s="1">
         <v>24</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
+      <c r="AP19" s="1">
+        <v>23</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>21</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>12</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>11</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>9</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>7</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:65" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="4">
-        <v>8</v>
-      </c>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
     </row>
-    <row r="18" spans="2:65" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-    </row>
-    <row r="19" spans="2:65" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-    </row>
-    <row r="20" spans="2:65" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-    </row>
-    <row r="21" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3111,38 +3061,102 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
@@ -3160,73 +3174,90 @@
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
     </row>
-    <row r="22" spans="2:65" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="5">
+        <v>8</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="5">
+        <v>8</v>
+      </c>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="7"/>
     </row>
-    <row r="23" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3292,7 +3323,7 @@
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
     </row>
-    <row r="24" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3358,7 +3389,7 @@
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
     </row>
-    <row r="25" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3424,7 +3455,7 @@
       <c r="BL25" s="1"/>
       <c r="BM25" s="1"/>
     </row>
-    <row r="26" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3490,7 +3521,7 @@
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
     </row>
-    <row r="27" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3556,7 +3587,7 @@
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
     </row>
-    <row r="28" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3622,7 +3653,7 @@
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
     </row>
-    <row r="29" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3688,7 +3719,7 @@
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
     </row>
-    <row r="30" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3754,7 +3785,7 @@
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
     </row>
-    <row r="31" spans="2:65" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3820,19 +3851,164 @@
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
     </row>
-    <row r="33" spans="66:66" x14ac:dyDescent="0.15">
-      <c r="BN33" s="9"/>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
     </row>
-    <row r="34" spans="66:66" x14ac:dyDescent="0.15">
-      <c r="BN34" s="9"/>
+    <row r="33" spans="2:66" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+    </row>
+    <row r="35" spans="2:66" x14ac:dyDescent="0.15">
+      <c r="BN35" s="10"/>
+    </row>
+    <row r="36" spans="2:66" x14ac:dyDescent="0.15">
+      <c r="BN36" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="AT13:AW13"/>
     <mergeCell ref="AX13:BA13"/>
     <mergeCell ref="BB13:BE13"/>
     <mergeCell ref="BF13:BI13"/>
     <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="AX20:BM20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AH20:AT20"/>
     <mergeCell ref="V13:Y13"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="AD13:AG13"/>
@@ -3915,21 +4091,23 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="R15:AG15"/>
-    <mergeCell ref="AH15:AO15"/>
-    <mergeCell ref="AX15:BM15"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="AT22:AW22"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="BJ22:BM22"/>
+    <mergeCell ref="AX22:BA22"/>
+    <mergeCell ref="BB22:BE22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
